--- a/Code/Results/Cases/Case_0_175/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_175/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.993954805034517</v>
+        <v>3.685701061400442</v>
       </c>
       <c r="D2">
-        <v>8.171861418962829</v>
+        <v>10.10017929842885</v>
       </c>
       <c r="E2">
-        <v>11.36675839531802</v>
+        <v>14.03881895929419</v>
       </c>
       <c r="F2">
-        <v>20.34113620273093</v>
+        <v>28.29355485500399</v>
       </c>
       <c r="G2">
-        <v>21.21106268256393</v>
+        <v>26.86987343044801</v>
       </c>
       <c r="H2">
-        <v>8.129893087553313</v>
+        <v>13.78051638035478</v>
       </c>
       <c r="I2">
-        <v>13.08168587033509</v>
+        <v>19.40484108690837</v>
       </c>
       <c r="J2">
-        <v>6.276745509468998</v>
+        <v>9.740175377643377</v>
       </c>
       <c r="K2">
-        <v>19.34520528357307</v>
+        <v>13.36109662984896</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.39411917974008</v>
+        <v>16.65595541911686</v>
       </c>
       <c r="O2">
-        <v>13.32168037417987</v>
+        <v>20.73030004301128</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.708416531049834</v>
+        <v>3.555038748699812</v>
       </c>
       <c r="D3">
-        <v>7.81268562137697</v>
+        <v>10.04426373865938</v>
       </c>
       <c r="E3">
-        <v>10.8823837906336</v>
+        <v>13.97484461318791</v>
       </c>
       <c r="F3">
-        <v>19.81175312529687</v>
+        <v>28.3126419055888</v>
       </c>
       <c r="G3">
-        <v>20.52207321731639</v>
+        <v>26.87990778699228</v>
       </c>
       <c r="H3">
-        <v>8.141710018931075</v>
+        <v>13.82506560225322</v>
       </c>
       <c r="I3">
-        <v>12.85250095371313</v>
+        <v>19.44354844778263</v>
       </c>
       <c r="J3">
-        <v>6.159704191612345</v>
+        <v>9.745206472895356</v>
       </c>
       <c r="K3">
-        <v>18.13065184668147</v>
+        <v>12.86315344576962</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.37030795868698</v>
+        <v>16.6673787505694</v>
       </c>
       <c r="O3">
-        <v>13.18859562282289</v>
+        <v>20.79188227735693</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.523771871291117</v>
+        <v>3.471517390418423</v>
       </c>
       <c r="D4">
-        <v>7.586828996511295</v>
+        <v>10.01147868663936</v>
       </c>
       <c r="E4">
-        <v>10.58003379736649</v>
+        <v>13.9383277492021</v>
       </c>
       <c r="F4">
-        <v>19.49933151087121</v>
+        <v>28.33204102417042</v>
       </c>
       <c r="G4">
-        <v>20.11577674064362</v>
+        <v>26.89609832379393</v>
       </c>
       <c r="H4">
-        <v>8.155286481448623</v>
+        <v>13.8548733790866</v>
       </c>
       <c r="I4">
-        <v>12.72271791184058</v>
+        <v>19.47226260555254</v>
       </c>
       <c r="J4">
-        <v>6.090216129211075</v>
+        <v>9.749864171428282</v>
       </c>
       <c r="K4">
-        <v>17.34142015460984</v>
+        <v>12.5478718223984</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.35916097714195</v>
+        <v>16.67607931596168</v>
       </c>
       <c r="O4">
-        <v>13.12011149050406</v>
+        <v>20.83476068856033</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.446204869631043</v>
+        <v>3.436682564982792</v>
       </c>
       <c r="D5">
-        <v>7.493583549532524</v>
+        <v>9.998518230782578</v>
       </c>
       <c r="E5">
-        <v>10.45576424241256</v>
+        <v>13.9241536189655</v>
       </c>
       <c r="F5">
-        <v>19.37531207477529</v>
+        <v>28.34187496469368</v>
       </c>
       <c r="G5">
-        <v>19.9546130086574</v>
+        <v>26.9052112047065</v>
       </c>
       <c r="H5">
-        <v>8.16234929798531</v>
+        <v>13.86763688998082</v>
       </c>
       <c r="I5">
-        <v>12.67257367652164</v>
+        <v>19.48520496011356</v>
       </c>
       <c r="J5">
-        <v>6.062517805896507</v>
+        <v>9.752157074199083</v>
       </c>
       <c r="K5">
-        <v>17.00888045506018</v>
+        <v>12.41717038944968</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.35547718987466</v>
+        <v>16.68005014164614</v>
       </c>
       <c r="O5">
-        <v>13.09544524681178</v>
+        <v>20.8535043427433</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.433185400835931</v>
+        <v>3.430850918680331</v>
       </c>
       <c r="D6">
-        <v>7.478031481938396</v>
+        <v>9.996390598755243</v>
       </c>
       <c r="E6">
-        <v>10.43507116900442</v>
+        <v>13.9218430316538</v>
       </c>
       <c r="F6">
-        <v>19.35492108922563</v>
+        <v>28.34362427535189</v>
       </c>
       <c r="G6">
-        <v>19.92812337829933</v>
+        <v>26.90687605393071</v>
       </c>
       <c r="H6">
-        <v>8.163612775148644</v>
+        <v>13.86979348536932</v>
       </c>
       <c r="I6">
-        <v>12.66441254430305</v>
+        <v>19.48742889145481</v>
       </c>
       <c r="J6">
-        <v>6.057956478393068</v>
+        <v>9.752561667035419</v>
       </c>
       <c r="K6">
-        <v>16.95300361249439</v>
+        <v>12.39533891663624</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.35491693633644</v>
+        <v>16.68073521316349</v>
       </c>
       <c r="O6">
-        <v>13.0915425308802</v>
+        <v>20.85669332621804</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.522735147131716</v>
+        <v>3.471050790662968</v>
       </c>
       <c r="D7">
-        <v>7.585576157148568</v>
+        <v>10.01130226531676</v>
       </c>
       <c r="E7">
-        <v>10.57836188630592</v>
+        <v>13.93813371519946</v>
       </c>
       <c r="F7">
-        <v>19.49764544753129</v>
+        <v>28.33216584319461</v>
       </c>
       <c r="G7">
-        <v>20.11358514577568</v>
+        <v>26.8962110504606</v>
       </c>
       <c r="H7">
-        <v>8.155375614891495</v>
+        <v>13.85504301644284</v>
       </c>
       <c r="I7">
-        <v>12.7220305582599</v>
+        <v>19.47243212980484</v>
       </c>
       <c r="J7">
-        <v>6.089840048035707</v>
+        <v>9.749893495105296</v>
       </c>
       <c r="K7">
-        <v>17.33697959740671</v>
+        <v>12.54611788306706</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.35910783874382</v>
+        <v>16.67613114447325</v>
       </c>
       <c r="O7">
-        <v>13.11976582789078</v>
+        <v>20.83500833348171</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.897447089781502</v>
+        <v>3.641348845745696</v>
       </c>
       <c r="D8">
-        <v>8.049195297907007</v>
+        <v>10.08058500705021</v>
       </c>
       <c r="E8">
-        <v>11.20087489129129</v>
+        <v>14.01619439541276</v>
       </c>
       <c r="F8">
-        <v>20.15606047700625</v>
+        <v>28.2985410137017</v>
       </c>
       <c r="G8">
-        <v>20.9701435833159</v>
+        <v>26.87124821144263</v>
       </c>
       <c r="H8">
-        <v>8.132620071481366</v>
+        <v>13.79536720746356</v>
       </c>
       <c r="I8">
-        <v>13.00039191569723</v>
+        <v>19.41715878461884</v>
       </c>
       <c r="J8">
-        <v>6.235909631628584</v>
+        <v>9.741584823382411</v>
       </c>
       <c r="K8">
-        <v>18.93545791248001</v>
+        <v>13.19148718130634</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.38517933345042</v>
+        <v>16.65954484001583</v>
       </c>
       <c r="O8">
-        <v>13.27299862355086</v>
+        <v>20.75047984504634</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.557654351770176</v>
+        <v>3.948052320803114</v>
       </c>
       <c r="D9">
-        <v>8.911242492515543</v>
+        <v>10.22823446162508</v>
       </c>
       <c r="E9">
-        <v>12.3754861099217</v>
+        <v>14.19063741710212</v>
       </c>
       <c r="F9">
-        <v>21.54174168714373</v>
+        <v>28.29360079965121</v>
       </c>
       <c r="G9">
-        <v>22.77383916641888</v>
+        <v>26.90207821928456</v>
       </c>
       <c r="H9">
-        <v>8.14079436247691</v>
+        <v>13.69784266238242</v>
       </c>
       <c r="I9">
-        <v>13.63286636242068</v>
+        <v>19.34814516303977</v>
       </c>
       <c r="J9">
-        <v>6.540233757998215</v>
+        <v>9.737715377217985</v>
       </c>
       <c r="K9">
-        <v>21.72509596161889</v>
+        <v>14.37447854956842</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.46453373495233</v>
+        <v>16.64035011760251</v>
       </c>
       <c r="O9">
-        <v>13.68174376334199</v>
+        <v>20.62507882433599</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.996757072338134</v>
+        <v>4.155500160014094</v>
       </c>
       <c r="D10">
-        <v>9.510468813863399</v>
+        <v>10.3432081230394</v>
       </c>
       <c r="E10">
-        <v>13.20262552707185</v>
+        <v>14.33101686431509</v>
       </c>
       <c r="F10">
-        <v>22.60988422339547</v>
+        <v>28.32717684087627</v>
       </c>
       <c r="G10">
-        <v>24.1629293753615</v>
+        <v>26.9734909547842</v>
       </c>
       <c r="H10">
-        <v>8.182589619237064</v>
+        <v>13.63811258795734</v>
       </c>
       <c r="I10">
-        <v>14.14957276381986</v>
+        <v>19.32158569704688</v>
       </c>
       <c r="J10">
-        <v>6.773423335119939</v>
+        <v>9.742410961540198</v>
       </c>
       <c r="K10">
-        <v>23.56535760743895</v>
+        <v>15.18534526996618</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.54098396792715</v>
+        <v>16.63430537714756</v>
       </c>
       <c r="O10">
-        <v>14.05177518040129</v>
+        <v>20.55775329415963</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.186521396492735</v>
+        <v>4.245774987704022</v>
       </c>
       <c r="D11">
-        <v>9.77481856883246</v>
+        <v>10.39676764744955</v>
       </c>
       <c r="E11">
-        <v>13.56991102822358</v>
+        <v>14.39734322658498</v>
       </c>
       <c r="F11">
-        <v>23.10516995321814</v>
+        <v>28.35051004596015</v>
       </c>
       <c r="G11">
-        <v>24.80648997063744</v>
+        <v>27.01654256564369</v>
       </c>
       <c r="H11">
-        <v>8.210136252938483</v>
+        <v>13.61353538055983</v>
       </c>
       <c r="I11">
-        <v>14.39564860842832</v>
+        <v>19.314766593829</v>
       </c>
       <c r="J11">
-        <v>6.881327598023587</v>
+        <v>9.746173923035711</v>
       </c>
       <c r="K11">
-        <v>24.3574997638892</v>
+        <v>15.54022419891396</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.57990996052652</v>
+        <v>16.63328959964158</v>
       </c>
       <c r="O11">
-        <v>14.2358429779292</v>
+        <v>20.53255009706135</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.256946492069317</v>
+        <v>4.279356168401943</v>
       </c>
       <c r="D12">
-        <v>9.873682496524625</v>
+        <v>10.41721644995536</v>
       </c>
       <c r="E12">
-        <v>13.70762379889268</v>
+        <v>14.42279712143154</v>
       </c>
       <c r="F12">
-        <v>23.29395613802706</v>
+        <v>28.36050082341885</v>
       </c>
       <c r="G12">
-        <v>25.05170249652246</v>
+        <v>27.03435833482185</v>
       </c>
       <c r="H12">
-        <v>8.221855891236681</v>
+        <v>13.60460226225663</v>
       </c>
       <c r="I12">
-        <v>14.49038714803181</v>
+        <v>19.31294204425344</v>
       </c>
       <c r="J12">
-        <v>6.922429887130986</v>
+        <v>9.747831705605927</v>
       </c>
       <c r="K12">
-        <v>24.65103247632932</v>
+        <v>15.67250269638419</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.59526372867676</v>
+        <v>16.63315289036331</v>
       </c>
       <c r="O12">
-        <v>14.30784316151021</v>
+        <v>20.52378890636884</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.241842939350716</v>
+        <v>4.272150940100531</v>
       </c>
       <c r="D13">
-        <v>9.852446257088337</v>
+        <v>10.41280523139138</v>
       </c>
       <c r="E13">
-        <v>13.67802689812515</v>
+        <v>14.41730043776852</v>
       </c>
       <c r="F13">
-        <v>23.25324457258166</v>
+        <v>28.35829783751238</v>
       </c>
       <c r="G13">
-        <v>24.99882681656594</v>
+        <v>27.03045422283605</v>
       </c>
       <c r="H13">
-        <v>8.219273595880075</v>
+        <v>13.60650953650477</v>
       </c>
       <c r="I13">
-        <v>14.46991483743813</v>
+        <v>19.31330128601655</v>
       </c>
       <c r="J13">
-        <v>6.913567359449138</v>
+        <v>9.747464336501894</v>
       </c>
       <c r="K13">
-        <v>24.58810047340768</v>
+        <v>15.64410921615953</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.59192947099793</v>
+        <v>16.63317132866761</v>
       </c>
       <c r="O13">
-        <v>14.29223397055346</v>
+        <v>20.52564093244952</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.192344044520408</v>
+        <v>4.248549914971567</v>
       </c>
       <c r="D14">
-        <v>9.782977277948</v>
+        <v>10.39844671654559</v>
       </c>
       <c r="E14">
-        <v>13.58126859074643</v>
+        <v>14.39943066967554</v>
       </c>
       <c r="F14">
-        <v>23.12067743363864</v>
+        <v>28.35130887221404</v>
       </c>
       <c r="G14">
-        <v>24.82663435384565</v>
+        <v>27.017978000525</v>
       </c>
       <c r="H14">
-        <v>8.211074267962349</v>
+        <v>13.6127929534915</v>
       </c>
       <c r="I14">
-        <v>14.40341181647411</v>
+        <v>19.31460129833748</v>
       </c>
       <c r="J14">
-        <v>6.88470438694828</v>
+        <v>9.746305650415644</v>
       </c>
       <c r="K14">
-        <v>24.38177759815892</v>
+        <v>15.55114954521689</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.58116073479103</v>
+        <v>16.63327339154289</v>
       </c>
       <c r="O14">
-        <v>14.24172025533483</v>
+        <v>20.53181360680632</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.161837809168748</v>
+        <v>4.234014540436621</v>
       </c>
       <c r="D15">
-        <v>9.740262671874158</v>
+        <v>10.3896730411941</v>
       </c>
       <c r="E15">
-        <v>13.52182085233294</v>
+        <v>14.38852835765539</v>
       </c>
       <c r="F15">
-        <v>23.03963345763061</v>
+        <v>28.34717820654319</v>
       </c>
       <c r="G15">
-        <v>24.72135363690165</v>
+        <v>27.01053277036491</v>
       </c>
       <c r="H15">
-        <v>8.206221518919477</v>
+        <v>13.61669041914712</v>
       </c>
       <c r="I15">
-        <v>14.36287838960703</v>
+        <v>19.31549628584125</v>
       </c>
       <c r="J15">
-        <v>6.867055808833866</v>
+        <v>9.745626207674754</v>
       </c>
       <c r="K15">
-        <v>24.2545621355683</v>
+        <v>15.49393214227224</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.57464495131304</v>
+        <v>16.63336815507819</v>
       </c>
       <c r="O15">
-        <v>14.21107927315875</v>
+        <v>20.53569655901496</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.98415464842914</v>
+        <v>4.149516753667957</v>
       </c>
       <c r="D16">
-        <v>9.493022173226326</v>
+        <v>10.33973200748791</v>
       </c>
       <c r="E16">
-        <v>13.17843467386541</v>
+        <v>14.32673046555628</v>
       </c>
       <c r="F16">
-        <v>22.5776946471991</v>
+        <v>28.32581382830939</v>
       </c>
       <c r="G16">
-        <v>24.12109100144551</v>
+        <v>26.97088955966754</v>
       </c>
       <c r="H16">
-        <v>8.180966356336279</v>
+        <v>13.63977102883925</v>
       </c>
       <c r="I16">
-        <v>14.13371038870632</v>
+        <v>19.32213733297296</v>
       </c>
       <c r="J16">
-        <v>6.76640641423496</v>
+        <v>9.742197688410513</v>
       </c>
       <c r="K16">
-        <v>23.51268671700693</v>
+        <v>15.16186320245052</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.53852496955102</v>
+        <v>16.63440653428115</v>
       </c>
       <c r="O16">
-        <v>14.0400657412798</v>
+        <v>20.55950976499832</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.872594345260057</v>
+        <v>4.09661996952001</v>
       </c>
       <c r="D17">
-        <v>9.339194805365397</v>
+        <v>10.30940709513593</v>
       </c>
       <c r="E17">
-        <v>12.96541596489134</v>
+        <v>14.28943927086456</v>
       </c>
       <c r="F17">
-        <v>22.29662607082301</v>
+        <v>28.31476926239628</v>
       </c>
       <c r="G17">
-        <v>23.75570933684182</v>
+        <v>26.949272179552</v>
       </c>
       <c r="H17">
-        <v>8.167702681923737</v>
+        <v>13.65459518886693</v>
       </c>
       <c r="I17">
-        <v>13.99592550427821</v>
+        <v>19.32756015810816</v>
       </c>
       <c r="J17">
-        <v>6.705113125554672</v>
+        <v>9.740510342881617</v>
       </c>
       <c r="K17">
-        <v>23.04606841210015</v>
+        <v>14.95449517573248</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.51744090836305</v>
+        <v>16.63548668284519</v>
       </c>
       <c r="O17">
-        <v>13.93921252859202</v>
+        <v>20.57550958672577</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.807487640593612</v>
+        <v>4.065810533231766</v>
       </c>
       <c r="D18">
-        <v>9.249944133565144</v>
+        <v>10.29208421000926</v>
       </c>
       <c r="E18">
-        <v>12.84205111874375</v>
+        <v>14.26822364273664</v>
       </c>
       <c r="F18">
-        <v>22.13585227221892</v>
+        <v>28.30917561294618</v>
       </c>
       <c r="G18">
-        <v>23.54665722569522</v>
+        <v>26.93783345315928</v>
       </c>
       <c r="H18">
-        <v>8.16087340475341</v>
+        <v>13.66336580244399</v>
       </c>
       <c r="I18">
-        <v>13.91771481571141</v>
+        <v>19.33117457369793</v>
       </c>
       <c r="J18">
-        <v>6.670031810587405</v>
+        <v>9.73969303492939</v>
       </c>
       <c r="K18">
-        <v>22.77344347938349</v>
+        <v>14.83391071649655</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.50570336095509</v>
+        <v>16.63627125552191</v>
       </c>
       <c r="O18">
-        <v>13.88268429653029</v>
+        <v>20.58522259837725</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.785282155343291</v>
+        <v>4.055313429401749</v>
       </c>
       <c r="D19">
-        <v>9.21959443873636</v>
+        <v>10.28623986929205</v>
       </c>
       <c r="E19">
-        <v>12.80013993963261</v>
+        <v>14.26108097661877</v>
       </c>
       <c r="F19">
-        <v>22.08157355178253</v>
+        <v>28.30741213884377</v>
       </c>
       <c r="G19">
-        <v>23.47607112979026</v>
+        <v>26.93413154209264</v>
       </c>
       <c r="H19">
-        <v>8.158696586578904</v>
+        <v>13.66637729324818</v>
       </c>
       <c r="I19">
-        <v>13.89141346423173</v>
+        <v>19.33248339412484</v>
       </c>
       <c r="J19">
-        <v>6.658184260536855</v>
+        <v>9.739442654062863</v>
       </c>
       <c r="K19">
-        <v>22.68040838133067</v>
+        <v>14.79286068514261</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.50179560924806</v>
+        <v>16.63656498724786</v>
       </c>
       <c r="O19">
-        <v>13.86379780020162</v>
+        <v>20.58859881758945</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.884567432097183</v>
+        <v>4.102290844480275</v>
       </c>
       <c r="D20">
-        <v>9.35565045033362</v>
+        <v>10.31262299627536</v>
       </c>
       <c r="E20">
-        <v>12.98817994869709</v>
+        <v>14.29338496137807</v>
       </c>
       <c r="F20">
-        <v>22.32645513759903</v>
+        <v>28.31586645713888</v>
       </c>
       <c r="G20">
-        <v>23.79449167543252</v>
+        <v>26.95147044322013</v>
       </c>
       <c r="H20">
-        <v>8.169031416818335</v>
+        <v>13.65299185823902</v>
       </c>
       <c r="I20">
-        <v>14.01048556895607</v>
+        <v>19.32693161416962</v>
       </c>
       <c r="J20">
-        <v>6.711620158790474</v>
+        <v>9.740674114851137</v>
       </c>
       <c r="K20">
-        <v>23.09617913940804</v>
+        <v>14.97670635695581</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.51964491552701</v>
+        <v>16.63535480828561</v>
       </c>
       <c r="O20">
-        <v>13.94979509067013</v>
+        <v>20.57375353903908</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.206921978712801</v>
+        <v>4.255498609443137</v>
       </c>
       <c r="D21">
-        <v>9.803416020181075</v>
+        <v>10.40265974039481</v>
       </c>
       <c r="E21">
-        <v>13.60972657909113</v>
+        <v>14.40467043303888</v>
       </c>
       <c r="F21">
-        <v>23.15958304026065</v>
+        <v>28.35333039180911</v>
       </c>
       <c r="G21">
-        <v>24.87717167480245</v>
+        <v>27.02160156779844</v>
       </c>
       <c r="H21">
-        <v>8.213447162165565</v>
+        <v>13.61093721320342</v>
       </c>
       <c r="I21">
-        <v>14.42290340824717</v>
+        <v>19.31419888490821</v>
       </c>
       <c r="J21">
-        <v>6.893175752608465</v>
+        <v>9.746639675227998</v>
       </c>
       <c r="K21">
-        <v>24.44255393063004</v>
+        <v>15.5785119155546</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.58430699249364</v>
+        <v>16.63323669551453</v>
       </c>
       <c r="O21">
-        <v>14.25649476025433</v>
+        <v>20.52997927912116</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.409240143440262</v>
+        <v>4.352102929183775</v>
       </c>
       <c r="D22">
-        <v>10.08881409715756</v>
+        <v>10.46247061645757</v>
       </c>
       <c r="E22">
-        <v>14.00793175563727</v>
+        <v>14.47936099315682</v>
       </c>
       <c r="F22">
-        <v>23.71121827100482</v>
+        <v>28.38454475862011</v>
       </c>
       <c r="G22">
-        <v>25.59350833905358</v>
+        <v>27.07625090623855</v>
       </c>
       <c r="H22">
-        <v>8.250012377060063</v>
+        <v>13.58563079391699</v>
       </c>
       <c r="I22">
-        <v>14.70149182290518</v>
+        <v>19.31029380373531</v>
       </c>
       <c r="J22">
-        <v>7.013230831065751</v>
+        <v>9.751895015214314</v>
       </c>
       <c r="K22">
-        <v>25.28500461513997</v>
+        <v>15.95951335832378</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.63015041448951</v>
+        <v>16.63329690581477</v>
       </c>
       <c r="O22">
-        <v>14.47034466538258</v>
+        <v>20.50593361710156</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.302022880108559</v>
+        <v>4.30087048086978</v>
       </c>
       <c r="D23">
-        <v>9.937169537686083</v>
+        <v>10.4304646129511</v>
       </c>
       <c r="E23">
-        <v>13.79615670029726</v>
+        <v>14.43932381332985</v>
       </c>
       <c r="F23">
-        <v>23.41618215003432</v>
+        <v>28.36727092909627</v>
       </c>
       <c r="G23">
-        <v>25.21043450888109</v>
+        <v>27.04627970482785</v>
       </c>
       <c r="H23">
-        <v>8.229787267478256</v>
+        <v>13.59893773454851</v>
       </c>
       <c r="I23">
-        <v>14.55198594059354</v>
+        <v>19.31197374509717</v>
       </c>
       <c r="J23">
-        <v>6.949033747455803</v>
+        <v>9.748966425698468</v>
       </c>
       <c r="K23">
-        <v>24.83878885290905</v>
+        <v>15.75732049767745</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.6053494446927</v>
+        <v>16.63313307326752</v>
       </c>
       <c r="O23">
-        <v>14.35497290313972</v>
+        <v>20.5183488388548</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.879157418457911</v>
+        <v>4.099728281583252</v>
       </c>
       <c r="D24">
-        <v>9.348213382133437</v>
+        <v>10.31116873960661</v>
       </c>
       <c r="E24">
-        <v>12.97789114115943</v>
+        <v>14.2916004169913</v>
       </c>
       <c r="F24">
-        <v>22.3129668649611</v>
+        <v>28.31536806016249</v>
       </c>
       <c r="G24">
-        <v>23.77695501921071</v>
+        <v>26.95047352587537</v>
       </c>
       <c r="H24">
-        <v>8.168428220478962</v>
+        <v>13.65371595153134</v>
       </c>
       <c r="I24">
-        <v>14.00389983518346</v>
+        <v>19.32721423157476</v>
       </c>
       <c r="J24">
-        <v>6.708677838372039</v>
+        <v>9.740599597600925</v>
       </c>
       <c r="K24">
-        <v>23.07353766229237</v>
+        <v>14.96666892879299</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.51864728920633</v>
+        <v>16.63541391912127</v>
       </c>
       <c r="O24">
-        <v>13.94500618933161</v>
+        <v>20.57454584576454</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.387102893925024</v>
+        <v>3.868140856973458</v>
       </c>
       <c r="D25">
-        <v>8.683695343433667</v>
+        <v>10.18709901163442</v>
       </c>
       <c r="E25">
-        <v>12.06353945416625</v>
+        <v>14.14123888981922</v>
       </c>
       <c r="F25">
-        <v>21.15754348859607</v>
+        <v>28.28840028789804</v>
       </c>
       <c r="G25">
-        <v>22.27384945154724</v>
+        <v>26.88517425668568</v>
       </c>
       <c r="H25">
-        <v>8.132557295873767</v>
+        <v>13.72213452363061</v>
       </c>
       <c r="I25">
-        <v>13.4525453774412</v>
+        <v>19.36258340786074</v>
       </c>
       <c r="J25">
-        <v>6.45612631967218</v>
+        <v>9.737435254573917</v>
       </c>
       <c r="K25">
-        <v>21.00728826033842</v>
+        <v>14.06417315194522</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.43994780191978</v>
+        <v>16.64412260557595</v>
       </c>
       <c r="O25">
-        <v>13.55915260491281</v>
+        <v>20.65466051443924</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_175/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_175/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.685701061400442</v>
+        <v>4.99395480503448</v>
       </c>
       <c r="D2">
-        <v>10.10017929842885</v>
+        <v>8.171861418962814</v>
       </c>
       <c r="E2">
-        <v>14.03881895929419</v>
+        <v>11.36675839531794</v>
       </c>
       <c r="F2">
-        <v>28.29355485500399</v>
+        <v>20.34113620273091</v>
       </c>
       <c r="G2">
-        <v>26.86987343044801</v>
+        <v>21.21106268256377</v>
       </c>
       <c r="H2">
-        <v>13.78051638035478</v>
+        <v>8.129893087553318</v>
       </c>
       <c r="I2">
-        <v>19.40484108690837</v>
+        <v>13.08168587033509</v>
       </c>
       <c r="J2">
-        <v>9.740175377643377</v>
+        <v>6.276745509468896</v>
       </c>
       <c r="K2">
-        <v>13.36109662984896</v>
+        <v>19.3452052835731</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.65595541911686</v>
+        <v>12.39411917974008</v>
       </c>
       <c r="O2">
-        <v>20.73030004301128</v>
+        <v>13.32168037417981</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.555038748699812</v>
+        <v>4.708416531049889</v>
       </c>
       <c r="D3">
-        <v>10.04426373865938</v>
+        <v>7.812685621376862</v>
       </c>
       <c r="E3">
-        <v>13.97484461318791</v>
+        <v>10.88238379063354</v>
       </c>
       <c r="F3">
-        <v>28.3126419055888</v>
+        <v>19.81175312529668</v>
       </c>
       <c r="G3">
-        <v>26.87990778699228</v>
+        <v>20.52207321731626</v>
       </c>
       <c r="H3">
-        <v>13.82506560225322</v>
+        <v>8.141710018931033</v>
       </c>
       <c r="I3">
-        <v>19.44354844778263</v>
+        <v>12.85250095371307</v>
       </c>
       <c r="J3">
-        <v>9.745206472895356</v>
+        <v>6.159704191612351</v>
       </c>
       <c r="K3">
-        <v>12.86315344576962</v>
+        <v>18.13065184668152</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.6673787505694</v>
+        <v>12.37030795868698</v>
       </c>
       <c r="O3">
-        <v>20.79188227735693</v>
+        <v>13.18859562282279</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.471517390418423</v>
+        <v>4.523771871291342</v>
       </c>
       <c r="D4">
-        <v>10.01147868663936</v>
+        <v>7.586828996511262</v>
       </c>
       <c r="E4">
-        <v>13.9383277492021</v>
+        <v>10.58003379736642</v>
       </c>
       <c r="F4">
-        <v>28.33204102417042</v>
+        <v>19.49933151087096</v>
       </c>
       <c r="G4">
-        <v>26.89609832379393</v>
+        <v>20.11577674064338</v>
       </c>
       <c r="H4">
-        <v>13.8548733790866</v>
+        <v>8.15528648144844</v>
       </c>
       <c r="I4">
-        <v>19.47226260555254</v>
+        <v>12.72271791184033</v>
       </c>
       <c r="J4">
-        <v>9.749864171428282</v>
+        <v>6.090216129211075</v>
       </c>
       <c r="K4">
-        <v>12.5478718223984</v>
+        <v>17.34142015460989</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.67607931596168</v>
+        <v>12.3591609771419</v>
       </c>
       <c r="O4">
-        <v>20.83476068856033</v>
+        <v>13.12011149050388</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.436682564982792</v>
+        <v>4.446204869631069</v>
       </c>
       <c r="D5">
-        <v>9.998518230782578</v>
+        <v>7.493583549532549</v>
       </c>
       <c r="E5">
-        <v>13.9241536189655</v>
+        <v>10.45576424241255</v>
       </c>
       <c r="F5">
-        <v>28.34187496469368</v>
+        <v>19.3753120747753</v>
       </c>
       <c r="G5">
-        <v>26.9052112047065</v>
+        <v>19.95461300865743</v>
       </c>
       <c r="H5">
-        <v>13.86763688998082</v>
+        <v>8.162349297985344</v>
       </c>
       <c r="I5">
-        <v>19.48520496011356</v>
+        <v>12.67257367652166</v>
       </c>
       <c r="J5">
-        <v>9.752157074199083</v>
+        <v>6.062517805896501</v>
       </c>
       <c r="K5">
-        <v>12.41717038944968</v>
+        <v>17.00888045506017</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.68005014164614</v>
+        <v>12.35547718987469</v>
       </c>
       <c r="O5">
-        <v>20.8535043427433</v>
+        <v>13.09544524681179</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.430850918680331</v>
+        <v>4.433185400836086</v>
       </c>
       <c r="D6">
-        <v>9.996390598755243</v>
+        <v>7.478031481938374</v>
       </c>
       <c r="E6">
-        <v>13.9218430316538</v>
+        <v>10.43507116900438</v>
       </c>
       <c r="F6">
-        <v>28.34362427535189</v>
+        <v>19.35492108922546</v>
       </c>
       <c r="G6">
-        <v>26.90687605393071</v>
+        <v>19.92812337829925</v>
       </c>
       <c r="H6">
-        <v>13.86979348536932</v>
+        <v>8.163612775148474</v>
       </c>
       <c r="I6">
-        <v>19.48742889145481</v>
+        <v>12.6644125443029</v>
       </c>
       <c r="J6">
-        <v>9.752561667035419</v>
+        <v>6.057956478393022</v>
       </c>
       <c r="K6">
-        <v>12.39533891663624</v>
+        <v>16.95300361249446</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.68073521316349</v>
+        <v>12.35491693633641</v>
       </c>
       <c r="O6">
-        <v>20.85669332621804</v>
+        <v>13.09154253088006</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.471050790662968</v>
+        <v>4.522735147131686</v>
       </c>
       <c r="D7">
-        <v>10.01130226531676</v>
+        <v>7.585576157148555</v>
       </c>
       <c r="E7">
-        <v>13.93813371519946</v>
+        <v>10.57836188630584</v>
       </c>
       <c r="F7">
-        <v>28.33216584319461</v>
+        <v>19.49764544753115</v>
       </c>
       <c r="G7">
-        <v>26.8962110504606</v>
+        <v>20.11358514577555</v>
       </c>
       <c r="H7">
-        <v>13.85504301644284</v>
+        <v>8.155375614891435</v>
       </c>
       <c r="I7">
-        <v>19.47243212980484</v>
+        <v>12.72203055825974</v>
       </c>
       <c r="J7">
-        <v>9.749893495105296</v>
+        <v>6.089840048035655</v>
       </c>
       <c r="K7">
-        <v>12.54611788306706</v>
+        <v>17.33697959740675</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.67613114447325</v>
+        <v>12.35910783874379</v>
       </c>
       <c r="O7">
-        <v>20.83500833348171</v>
+        <v>13.11976582789065</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.641348845745696</v>
+        <v>4.897447089781448</v>
       </c>
       <c r="D8">
-        <v>10.08058500705021</v>
+        <v>8.049195297906964</v>
       </c>
       <c r="E8">
-        <v>14.01619439541276</v>
+        <v>11.20087489129124</v>
       </c>
       <c r="F8">
-        <v>28.2985410137017</v>
+        <v>20.15606047700615</v>
       </c>
       <c r="G8">
-        <v>26.87124821144263</v>
+        <v>20.97014358331581</v>
       </c>
       <c r="H8">
-        <v>13.79536720746356</v>
+        <v>8.132620071481313</v>
       </c>
       <c r="I8">
-        <v>19.41715878461884</v>
+        <v>13.00039191569721</v>
       </c>
       <c r="J8">
-        <v>9.741584823382411</v>
+        <v>6.235909631628527</v>
       </c>
       <c r="K8">
-        <v>13.19148718130634</v>
+        <v>18.93545791248006</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.65954484001583</v>
+        <v>12.38517933345043</v>
       </c>
       <c r="O8">
-        <v>20.75047984504634</v>
+        <v>13.27299862355077</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.948052320803114</v>
+        <v>5.55765435177024</v>
       </c>
       <c r="D9">
-        <v>10.22823446162508</v>
+        <v>8.911242492515528</v>
       </c>
       <c r="E9">
-        <v>14.19063741710212</v>
+        <v>12.37548610992172</v>
       </c>
       <c r="F9">
-        <v>28.29360079965121</v>
+        <v>21.54174168714368</v>
       </c>
       <c r="G9">
-        <v>26.90207821928456</v>
+        <v>22.7738391664189</v>
       </c>
       <c r="H9">
-        <v>13.69784266238242</v>
+        <v>8.140794362476855</v>
       </c>
       <c r="I9">
-        <v>19.34814516303977</v>
+        <v>13.63286636242064</v>
       </c>
       <c r="J9">
-        <v>9.737715377217985</v>
+        <v>6.540233757998233</v>
       </c>
       <c r="K9">
-        <v>14.37447854956842</v>
+        <v>21.72509596161889</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.64035011760251</v>
+        <v>12.4645337349523</v>
       </c>
       <c r="O9">
-        <v>20.62507882433599</v>
+        <v>13.68174376334197</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.155500160014094</v>
+        <v>5.996757072338164</v>
       </c>
       <c r="D10">
-        <v>10.3432081230394</v>
+        <v>9.510468813863444</v>
       </c>
       <c r="E10">
-        <v>14.33101686431509</v>
+        <v>13.20262552707189</v>
       </c>
       <c r="F10">
-        <v>28.32717684087627</v>
+        <v>22.60988422339542</v>
       </c>
       <c r="G10">
-        <v>26.9734909547842</v>
+        <v>24.16292937536147</v>
       </c>
       <c r="H10">
-        <v>13.63811258795734</v>
+        <v>8.182589619236976</v>
       </c>
       <c r="I10">
-        <v>19.32158569704688</v>
+        <v>14.14957276381982</v>
       </c>
       <c r="J10">
-        <v>9.742410961540198</v>
+        <v>6.773423335119988</v>
       </c>
       <c r="K10">
-        <v>15.18534526996618</v>
+        <v>23.56535760743898</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.63430537714756</v>
+        <v>12.54098396792709</v>
       </c>
       <c r="O10">
-        <v>20.55775329415963</v>
+        <v>14.05177518040121</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.245774987704022</v>
+        <v>6.186521396492798</v>
       </c>
       <c r="D11">
-        <v>10.39676764744955</v>
+        <v>9.774818568832451</v>
       </c>
       <c r="E11">
-        <v>14.39734322658498</v>
+        <v>13.5699110282236</v>
       </c>
       <c r="F11">
-        <v>28.35051004596015</v>
+        <v>23.10516995321818</v>
       </c>
       <c r="G11">
-        <v>27.01654256564369</v>
+        <v>24.80648997063751</v>
       </c>
       <c r="H11">
-        <v>13.61353538055983</v>
+        <v>8.210136252938478</v>
       </c>
       <c r="I11">
-        <v>19.314766593829</v>
+        <v>14.39564860842835</v>
       </c>
       <c r="J11">
-        <v>9.746173923035711</v>
+        <v>6.881327598023594</v>
       </c>
       <c r="K11">
-        <v>15.54022419891396</v>
+        <v>24.35749976388919</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.63328959964158</v>
+        <v>12.57990996052652</v>
       </c>
       <c r="O11">
-        <v>20.53255009706135</v>
+        <v>14.23584297792923</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.279356168401943</v>
+        <v>6.256946492069293</v>
       </c>
       <c r="D12">
-        <v>10.41721644995536</v>
+        <v>9.873682496524633</v>
       </c>
       <c r="E12">
-        <v>14.42279712143154</v>
+        <v>13.70762379889267</v>
       </c>
       <c r="F12">
-        <v>28.36050082341885</v>
+        <v>23.29395613802707</v>
       </c>
       <c r="G12">
-        <v>27.03435833482185</v>
+        <v>25.0517024965225</v>
       </c>
       <c r="H12">
-        <v>13.60460226225663</v>
+        <v>8.221855891236602</v>
       </c>
       <c r="I12">
-        <v>19.31294204425344</v>
+        <v>14.49038714803182</v>
       </c>
       <c r="J12">
-        <v>9.747831705605927</v>
+        <v>6.92242988713096</v>
       </c>
       <c r="K12">
-        <v>15.67250269638419</v>
+        <v>24.65103247632934</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.63315289036331</v>
+        <v>12.59526372867675</v>
       </c>
       <c r="O12">
-        <v>20.52378890636884</v>
+        <v>14.30784316151024</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.272150940100531</v>
+        <v>6.241842939350708</v>
       </c>
       <c r="D13">
-        <v>10.41280523139138</v>
+        <v>9.852446257088321</v>
       </c>
       <c r="E13">
-        <v>14.41730043776852</v>
+        <v>13.67802689812511</v>
       </c>
       <c r="F13">
-        <v>28.35829783751238</v>
+        <v>23.25324457258163</v>
       </c>
       <c r="G13">
-        <v>27.03045422283605</v>
+        <v>24.99882681656595</v>
       </c>
       <c r="H13">
-        <v>13.60650953650477</v>
+        <v>8.21927359588007</v>
       </c>
       <c r="I13">
-        <v>19.31330128601655</v>
+        <v>14.46991483743813</v>
       </c>
       <c r="J13">
-        <v>9.747464336501894</v>
+        <v>6.913567359449113</v>
       </c>
       <c r="K13">
-        <v>15.64410921615953</v>
+        <v>24.58810047340769</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.63317132866761</v>
+        <v>12.59192947099794</v>
       </c>
       <c r="O13">
-        <v>20.52564093244952</v>
+        <v>14.29223397055346</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.248549914971567</v>
+        <v>6.192344044520408</v>
       </c>
       <c r="D14">
-        <v>10.39844671654559</v>
+        <v>9.782977277947984</v>
       </c>
       <c r="E14">
-        <v>14.39943066967554</v>
+        <v>13.58126859074643</v>
       </c>
       <c r="F14">
-        <v>28.35130887221404</v>
+        <v>23.12067743363854</v>
       </c>
       <c r="G14">
-        <v>27.017978000525</v>
+        <v>24.82663435384555</v>
       </c>
       <c r="H14">
-        <v>13.6127929534915</v>
+        <v>8.211074267962344</v>
       </c>
       <c r="I14">
-        <v>19.31460129833748</v>
+        <v>14.40341181647406</v>
       </c>
       <c r="J14">
-        <v>9.746305650415644</v>
+        <v>6.884704386948321</v>
       </c>
       <c r="K14">
-        <v>15.55114954521689</v>
+        <v>24.38177759815895</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.63327339154289</v>
+        <v>12.581160734791</v>
       </c>
       <c r="O14">
-        <v>20.53181360680632</v>
+        <v>14.24172025533476</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.234014540436621</v>
+        <v>6.161837809168771</v>
       </c>
       <c r="D15">
-        <v>10.3896730411941</v>
+        <v>9.740262671874158</v>
       </c>
       <c r="E15">
-        <v>14.38852835765539</v>
+        <v>13.52182085233296</v>
       </c>
       <c r="F15">
-        <v>28.34717820654319</v>
+        <v>23.03963345763054</v>
       </c>
       <c r="G15">
-        <v>27.01053277036491</v>
+        <v>24.72135363690163</v>
       </c>
       <c r="H15">
-        <v>13.61669041914712</v>
+        <v>8.206221518919421</v>
       </c>
       <c r="I15">
-        <v>19.31549628584125</v>
+        <v>14.36287838960697</v>
       </c>
       <c r="J15">
-        <v>9.745626207674754</v>
+        <v>6.867055808833876</v>
       </c>
       <c r="K15">
-        <v>15.49393214227224</v>
+        <v>24.25456213556835</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.63336815507819</v>
+        <v>12.57464495131302</v>
       </c>
       <c r="O15">
-        <v>20.53569655901496</v>
+        <v>14.21107927315864</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.149516753667957</v>
+        <v>5.984154648429032</v>
       </c>
       <c r="D16">
-        <v>10.33973200748791</v>
+        <v>9.493022173226247</v>
       </c>
       <c r="E16">
-        <v>14.32673046555628</v>
+        <v>13.17843467386536</v>
       </c>
       <c r="F16">
-        <v>28.32581382830939</v>
+        <v>22.57769464719901</v>
       </c>
       <c r="G16">
-        <v>26.97088955966754</v>
+        <v>24.12109100144552</v>
       </c>
       <c r="H16">
-        <v>13.63977102883925</v>
+        <v>8.180966356336205</v>
       </c>
       <c r="I16">
-        <v>19.32213733297296</v>
+        <v>14.13371038870629</v>
       </c>
       <c r="J16">
-        <v>9.742197688410513</v>
+        <v>6.766406414234962</v>
       </c>
       <c r="K16">
-        <v>15.16186320245052</v>
+        <v>23.51268671700701</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.63440653428115</v>
+        <v>12.53852496955098</v>
       </c>
       <c r="O16">
-        <v>20.55950976499832</v>
+        <v>14.04006574127973</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.09661996952001</v>
+        <v>5.872594345260026</v>
       </c>
       <c r="D17">
-        <v>10.30940709513593</v>
+        <v>9.339194805365381</v>
       </c>
       <c r="E17">
-        <v>14.28943927086456</v>
+        <v>12.96541596489135</v>
       </c>
       <c r="F17">
-        <v>28.31476926239628</v>
+        <v>22.29662607082296</v>
       </c>
       <c r="G17">
-        <v>26.949272179552</v>
+        <v>23.75570933684171</v>
       </c>
       <c r="H17">
-        <v>13.65459518886693</v>
+        <v>8.167702681923659</v>
       </c>
       <c r="I17">
-        <v>19.32756015810816</v>
+        <v>13.99592550427814</v>
       </c>
       <c r="J17">
-        <v>9.740510342881617</v>
+        <v>6.70511312555467</v>
       </c>
       <c r="K17">
-        <v>14.95449517573248</v>
+        <v>23.0460684121002</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.63548668284519</v>
+        <v>12.51744090836302</v>
       </c>
       <c r="O17">
-        <v>20.57550958672577</v>
+        <v>13.93921252859194</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.065810533231766</v>
+        <v>5.807487640593612</v>
       </c>
       <c r="D18">
-        <v>10.29208421000926</v>
+        <v>9.249944133565137</v>
       </c>
       <c r="E18">
-        <v>14.26822364273664</v>
+        <v>12.84205111874376</v>
       </c>
       <c r="F18">
-        <v>28.30917561294618</v>
+        <v>22.13585227221891</v>
       </c>
       <c r="G18">
-        <v>26.93783345315928</v>
+        <v>23.54665722569526</v>
       </c>
       <c r="H18">
-        <v>13.66336580244399</v>
+        <v>8.16087340475341</v>
       </c>
       <c r="I18">
-        <v>19.33117457369793</v>
+        <v>13.91771481571141</v>
       </c>
       <c r="J18">
-        <v>9.73969303492939</v>
+        <v>6.670031810587441</v>
       </c>
       <c r="K18">
-        <v>14.83391071649655</v>
+        <v>22.77344347938348</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.63627125552191</v>
+        <v>12.50570336095508</v>
       </c>
       <c r="O18">
-        <v>20.58522259837725</v>
+        <v>13.88268429653029</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.055313429401749</v>
+        <v>5.785282155343259</v>
       </c>
       <c r="D19">
-        <v>10.28623986929205</v>
+        <v>9.219594438736314</v>
       </c>
       <c r="E19">
-        <v>14.26108097661877</v>
+        <v>12.80013993963258</v>
       </c>
       <c r="F19">
-        <v>28.30741213884377</v>
+        <v>22.0815735517825</v>
       </c>
       <c r="G19">
-        <v>26.93413154209264</v>
+        <v>23.4760711297903</v>
       </c>
       <c r="H19">
-        <v>13.66637729324818</v>
+        <v>8.158696586578849</v>
       </c>
       <c r="I19">
-        <v>19.33248339412484</v>
+        <v>13.89141346423172</v>
       </c>
       <c r="J19">
-        <v>9.739442654062863</v>
+        <v>6.658184260536842</v>
       </c>
       <c r="K19">
-        <v>14.79286068514261</v>
+        <v>22.68040838133066</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.63656498724786</v>
+        <v>12.501795609248</v>
       </c>
       <c r="O19">
-        <v>20.58859881758945</v>
+        <v>13.86379780020159</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.102290844480275</v>
+        <v>5.884567432097198</v>
       </c>
       <c r="D20">
-        <v>10.31262299627536</v>
+        <v>9.355650450333572</v>
       </c>
       <c r="E20">
-        <v>14.29338496137807</v>
+        <v>12.98817994869709</v>
       </c>
       <c r="F20">
-        <v>28.31586645713888</v>
+        <v>22.32645513759898</v>
       </c>
       <c r="G20">
-        <v>26.95147044322013</v>
+        <v>23.79449167543257</v>
       </c>
       <c r="H20">
-        <v>13.65299185823902</v>
+        <v>8.169031416818289</v>
       </c>
       <c r="I20">
-        <v>19.32693161416962</v>
+        <v>14.01048556895606</v>
       </c>
       <c r="J20">
-        <v>9.740674114851137</v>
+        <v>6.711620158790507</v>
       </c>
       <c r="K20">
-        <v>14.97670635695581</v>
+        <v>23.09617913940805</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.63535480828561</v>
+        <v>12.51964491552703</v>
       </c>
       <c r="O20">
-        <v>20.57375353903908</v>
+        <v>13.94979509067013</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.255498609443137</v>
+        <v>6.206921978712854</v>
       </c>
       <c r="D21">
-        <v>10.40265974039481</v>
+        <v>9.803416020181038</v>
       </c>
       <c r="E21">
-        <v>14.40467043303888</v>
+        <v>13.60972657909109</v>
       </c>
       <c r="F21">
-        <v>28.35333039180911</v>
+        <v>23.1595830402606</v>
       </c>
       <c r="G21">
-        <v>27.02160156779844</v>
+        <v>24.87717167480248</v>
       </c>
       <c r="H21">
-        <v>13.61093721320342</v>
+        <v>8.213447162165522</v>
       </c>
       <c r="I21">
-        <v>19.31419888490821</v>
+        <v>14.42290340824711</v>
       </c>
       <c r="J21">
-        <v>9.746639675227998</v>
+        <v>6.893175752608443</v>
       </c>
       <c r="K21">
-        <v>15.5785119155546</v>
+        <v>24.44255393063012</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.63323669551453</v>
+        <v>12.58430699249363</v>
       </c>
       <c r="O21">
-        <v>20.52997927912116</v>
+        <v>14.25649476025427</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.352102929183775</v>
+        <v>6.40924014344042</v>
       </c>
       <c r="D22">
-        <v>10.46247061645757</v>
+        <v>10.08881409715755</v>
       </c>
       <c r="E22">
-        <v>14.47936099315682</v>
+        <v>14.00793175563727</v>
       </c>
       <c r="F22">
-        <v>28.38454475862011</v>
+        <v>23.7112182710048</v>
       </c>
       <c r="G22">
-        <v>27.07625090623855</v>
+        <v>25.59350833905358</v>
       </c>
       <c r="H22">
-        <v>13.58563079391699</v>
+        <v>8.250012377060042</v>
       </c>
       <c r="I22">
-        <v>19.31029380373531</v>
+        <v>14.70149182290515</v>
       </c>
       <c r="J22">
-        <v>9.751895015214314</v>
+        <v>7.013230831065768</v>
       </c>
       <c r="K22">
-        <v>15.95951335832378</v>
+        <v>25.28500461513996</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.63329690581477</v>
+        <v>12.63015041448952</v>
       </c>
       <c r="O22">
-        <v>20.50593361710156</v>
+        <v>14.47034466538256</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.30087048086978</v>
+        <v>6.302022880108494</v>
       </c>
       <c r="D23">
-        <v>10.4304646129511</v>
+        <v>9.937169537686064</v>
       </c>
       <c r="E23">
-        <v>14.43932381332985</v>
+        <v>13.79615670029724</v>
       </c>
       <c r="F23">
-        <v>28.36727092909627</v>
+        <v>23.41618215003429</v>
       </c>
       <c r="G23">
-        <v>27.04627970482785</v>
+        <v>25.21043450888107</v>
       </c>
       <c r="H23">
-        <v>13.59893773454851</v>
+        <v>8.229787267478274</v>
       </c>
       <c r="I23">
-        <v>19.31197374509717</v>
+        <v>14.55198594059353</v>
       </c>
       <c r="J23">
-        <v>9.748966425698468</v>
+        <v>6.949033747455803</v>
       </c>
       <c r="K23">
-        <v>15.75732049767745</v>
+        <v>24.83878885290905</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.63313307326752</v>
+        <v>12.60534944469271</v>
       </c>
       <c r="O23">
-        <v>20.5183488388548</v>
+        <v>14.35497290313973</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.099728281583252</v>
+        <v>5.879157418457786</v>
       </c>
       <c r="D24">
-        <v>10.31116873960661</v>
+        <v>9.348213382133432</v>
       </c>
       <c r="E24">
-        <v>14.2916004169913</v>
+        <v>12.97789114115944</v>
       </c>
       <c r="F24">
-        <v>28.31536806016249</v>
+        <v>22.3129668649611</v>
       </c>
       <c r="G24">
-        <v>26.95047352587537</v>
+        <v>23.77695501921075</v>
       </c>
       <c r="H24">
-        <v>13.65371595153134</v>
+        <v>8.168428220478951</v>
       </c>
       <c r="I24">
-        <v>19.32721423157476</v>
+        <v>14.00389983518348</v>
       </c>
       <c r="J24">
-        <v>9.740599597600925</v>
+        <v>6.708677838372077</v>
       </c>
       <c r="K24">
-        <v>14.96666892879299</v>
+        <v>23.07353766229237</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.63541391912127</v>
+        <v>12.51864728920633</v>
       </c>
       <c r="O24">
-        <v>20.57454584576454</v>
+        <v>13.94500618933162</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.868140856973458</v>
+        <v>5.387102893925039</v>
       </c>
       <c r="D25">
-        <v>10.18709901163442</v>
+        <v>8.683695343433627</v>
       </c>
       <c r="E25">
-        <v>14.14123888981922</v>
+        <v>12.06353945416621</v>
       </c>
       <c r="F25">
-        <v>28.28840028789804</v>
+        <v>21.15754348859598</v>
       </c>
       <c r="G25">
-        <v>26.88517425668568</v>
+        <v>22.27384945154714</v>
       </c>
       <c r="H25">
-        <v>13.72213452363061</v>
+        <v>8.132557295873767</v>
       </c>
       <c r="I25">
-        <v>19.36258340786074</v>
+        <v>13.45254537744116</v>
       </c>
       <c r="J25">
-        <v>9.737435254573917</v>
+        <v>6.456126319672197</v>
       </c>
       <c r="K25">
-        <v>14.06417315194522</v>
+        <v>21.00728826033846</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.64412260557595</v>
+        <v>12.43994780191975</v>
       </c>
       <c r="O25">
-        <v>20.65466051443924</v>
+        <v>13.55915260491276</v>
       </c>
     </row>
   </sheetData>
